--- a/Pollinator_requirements.xlsx
+++ b/Pollinator_requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CFA560-BE29-D74C-BD5B-387B3446C412}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C858045D-A011-7A47-B062-80809C56AF81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3558,10 +3558,10 @@
   <dimension ref="A1:DQ96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/Pollinator_requirements.xlsx
+++ b/Pollinator_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16930A58-228C-184F-9C51-D30EDD16ED62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CFA04C-F0B5-114A-A4FA-F8DDF56D0377}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Species List" sheetId="2" r:id="rId1"/>
@@ -1383,7 +1383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="422">
   <si>
     <t>Reliance</t>
   </si>
@@ -3098,14 +3098,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3570,10 +3570,10 @@
   <dimension ref="A1:DS111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO97" sqref="AO97"/>
+      <selection pane="bottomRight" activeCell="AL51" sqref="AL51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7985,9 +7985,9 @@
       <c r="Y21" s="5">
         <v>1</v>
       </c>
-      <c r="Z21" s="48"/>
+      <c r="Z21" s="46"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="48">
+      <c r="AB21" s="46">
         <v>1</v>
       </c>
       <c r="AC21" s="5"/>
@@ -10461,11 +10461,11 @@
       <c r="Y33" s="5">
         <v>1</v>
       </c>
-      <c r="Z33" s="48">
+      <c r="Z33" s="46">
         <v>1</v>
       </c>
       <c r="AA33" s="5"/>
-      <c r="AB33" s="48"/>
+      <c r="AB33" s="46"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
@@ -12833,8 +12833,8 @@
       <c r="AC44" s="26"/>
       <c r="AF44" s="36"/>
       <c r="AG44" s="36"/>
-      <c r="AH44" s="5">
-        <v>0</v>
+      <c r="AH44" s="46">
+        <v>1</v>
       </c>
       <c r="AI44" s="5">
         <v>0</v>
@@ -17798,11 +17798,11 @@
       <c r="Y68" s="5">
         <v>1</v>
       </c>
-      <c r="Z68" s="48">
+      <c r="Z68" s="46">
         <v>1</v>
       </c>
       <c r="AA68" s="5"/>
-      <c r="AB68" s="48"/>
+      <c r="AB68" s="46"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
@@ -20788,11 +20788,11 @@
       <c r="Z82" s="5">
         <v>1</v>
       </c>
-      <c r="AA82" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB82" s="48"/>
-      <c r="AC82" s="48"/>
+      <c r="AA82" s="46">
+        <v>1</v>
+      </c>
+      <c r="AB82" s="46"/>
+      <c r="AC82" s="46"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="36"/>
@@ -22333,8 +22333,8 @@
       <c r="AR89" s="5">
         <v>0</v>
       </c>
-      <c r="AS89" s="5">
-        <v>0</v>
+      <c r="AS89" s="46">
+        <v>1</v>
       </c>
       <c r="AT89" s="5">
         <v>0</v>
@@ -23295,11 +23295,11 @@
       <c r="Y94" s="5">
         <v>1</v>
       </c>
-      <c r="Z94" s="48">
+      <c r="Z94" s="46">
         <v>1</v>
       </c>
       <c r="AA94" s="5"/>
-      <c r="AB94" s="48"/>
+      <c r="AB94" s="46"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
@@ -23967,11 +23967,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2B0D57-B714-8B46-AC18-E8DEFB999C5C}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="21" customHeight="1"/>
@@ -23999,7 +23999,7 @@
       <c r="B2" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>397</v>
       </c>
     </row>
@@ -24010,7 +24010,7 @@
       <c r="B3" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1">
       <c r="A4" s="13" t="s">
@@ -24019,7 +24019,7 @@
       <c r="B4" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="47"/>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -24028,7 +24028,7 @@
       <c r="B5" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="47"/>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1">
       <c r="A6" s="13" t="s">
@@ -24037,7 +24037,7 @@
       <c r="B6" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>395</v>
       </c>
     </row>
@@ -24048,7 +24048,7 @@
       <c r="B7" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="47"/>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1">
       <c r="A8" s="13" t="s">
@@ -24057,7 +24057,7 @@
       <c r="B8" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="47"/>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1">
       <c r="A9" s="13" t="s">
@@ -24066,7 +24066,7 @@
       <c r="B9" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="47"/>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1">
       <c r="A10" s="13" t="s">
@@ -24075,7 +24075,7 @@
       <c r="B10" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="47"/>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1">
       <c r="A11" s="13" t="s">
@@ -24084,7 +24084,7 @@
       <c r="B11" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="47"/>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1">
       <c r="A12" s="13" t="s">
@@ -24093,7 +24093,7 @@
       <c r="B12" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="47"/>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1">
       <c r="A13" s="13" t="s">
@@ -24102,7 +24102,7 @@
       <c r="B13" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="47"/>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1">
       <c r="A14" s="13" t="s">
@@ -24111,7 +24111,7 @@
       <c r="B14" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="47"/>
     </row>
     <row r="15" spans="1:3" ht="21" customHeight="1">
       <c r="A15" s="13" t="s">
@@ -24120,7 +24120,7 @@
       <c r="B15" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="47"/>
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1">
       <c r="A16" s="13" t="s">
@@ -24129,7 +24129,7 @@
       <c r="B16" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="47"/>
     </row>
     <row r="17" spans="1:3" ht="21" customHeight="1">
       <c r="A17" s="13" t="s">
@@ -24138,7 +24138,7 @@
       <c r="B17" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="47"/>
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1">
       <c r="A18" s="13" t="s">
@@ -24147,7 +24147,7 @@
       <c r="B18" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="48" t="s">
         <v>394</v>
       </c>
     </row>
@@ -24158,7 +24158,7 @@
       <c r="B19" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="48"/>
     </row>
     <row r="20" spans="1:3" ht="21" customHeight="1">
       <c r="A20" s="14" t="s">
@@ -24167,7 +24167,7 @@
       <c r="B20" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="48"/>
     </row>
     <row r="21" spans="1:3" ht="21" customHeight="1">
       <c r="A21" s="13" t="s">
@@ -24176,7 +24176,7 @@
       <c r="B21" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="48"/>
     </row>
     <row r="22" spans="1:3" ht="21" customHeight="1">
       <c r="A22" s="13" t="s">
@@ -24185,7 +24185,7 @@
       <c r="B22" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="48"/>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1">
       <c r="A23" s="13" t="s">
@@ -24194,7 +24194,7 @@
       <c r="B23" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="48"/>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1">
       <c r="A24" s="14" t="s">
@@ -24203,97 +24203,115 @@
       <c r="B24" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C24" s="47"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>24</v>
+        <v>421</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="47"/>
+        <v>197</v>
+      </c>
+      <c r="C25" s="48"/>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>25</v>
+      <c r="A26" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="47"/>
+        <v>198</v>
+      </c>
+      <c r="C26" s="48"/>
     </row>
     <row r="27" spans="1:3" ht="21" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" ht="21" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C28" s="47"/>
+      <c r="C28" s="48"/>
     </row>
     <row r="29" spans="1:3" ht="21" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>28</v>
+      <c r="A29" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="C29" s="48"/>
     </row>
     <row r="30" spans="1:3" ht="21" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>396</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C30" s="48"/>
     </row>
     <row r="31" spans="1:3" ht="21" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="46"/>
+        <v>212</v>
+      </c>
+      <c r="C31" s="48"/>
     </row>
     <row r="32" spans="1:3" ht="21" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="46"/>
+        <v>199</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="21" customHeight="1">
       <c r="A33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="47"/>
+    </row>
+    <row r="34" spans="1:3" ht="21" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="47"/>
+    </row>
+    <row r="35" spans="1:3" ht="21" customHeight="1">
+      <c r="A35" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="46"/>
+      <c r="C35" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C17"/>
-    <mergeCell ref="C18:C29"/>
-    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C18:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Pollinator_requirements.xlsx
+++ b/Pollinator_requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24216"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CFA04C-F0B5-114A-A4FA-F8DDF56D0377}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CFA04C-F0B5-114A-A4FA-F8DDF56D0377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Full Species List'!$A$1:$DM$96</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -73,6 +74,17 @@
     <author>tc={36EF6D54-4FCD-4EF6-926F-8965DB223ADA}</author>
     <author>tc={4768BBEE-F1D9-4C9A-B773-CFC9D36109BD}</author>
     <author>Stuart Roberts</author>
+    <author>tc={EA7E67EC-FCD3-4BC8-AF74-8ACC99503F29}</author>
+    <author>tc={324C5099-8953-4DD1-A5D1-67198D5A33BF}</author>
+    <author>tc={D5A0F095-F1F6-4ECA-9ADB-F47ADF46006D}</author>
+    <author>tc={CAD6F154-41A5-4F64-8388-CBEB97C89259}</author>
+    <author>tc={1E4C6D7B-773E-4788-BF3C-131888397CFB}</author>
+    <author>tc={626116DB-0FD7-4DC4-BC9A-2688E7272B0D}</author>
+    <author>tc={E7D896BC-CD78-47A1-9683-E443AB043521}</author>
+    <author>tc={2F6F2B58-30F5-49C8-8E42-0D2D3DA9CFC9}</author>
+    <author>tc={2524F5E6-B21A-4D22-9469-D464A1BD715D}</author>
+    <author>tc={5BAD5E4C-964D-4B2B-9D61-7132CA3366A9}</author>
+    <author>tc={3309DEE3-0499-4496-831E-61D7737D9BDE}</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{171A6B9F-9DEE-4943-8A52-AD204F19EDEB}">
@@ -583,6 +595,14 @@
         </r>
       </text>
     </comment>
+    <comment ref="Z21" authorId="36" shapeId="0" xr:uid="{EA7E67EC-FCD3-4BC8-AF74-8ACC99503F29}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CHANGE: new info shows 1 generation not 2</t>
+      </text>
+    </comment>
     <comment ref="BV23" authorId="35" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
@@ -703,6 +723,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB47" authorId="37" shapeId="0" xr:uid="{324C5099-8953-4DD1-A5D1-67198D5A33BF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CHANGE: Butler had 2 generations, but new data suggests only 1</t>
+      </text>
+    </comment>
+    <comment ref="AA50" authorId="38" shapeId="0" xr:uid="{D5A0F095-F1F6-4ECA-9ADB-F47ADF46006D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CHANGE: Butler had 1 here and none in G2, but new info suggests second generation</t>
+      </text>
+    </comment>
     <comment ref="BM51" authorId="35" shapeId="0" xr:uid="{301BF17A-1FC4-4C0F-9169-A5F15C317E0B}">
       <text>
         <r>
@@ -749,6 +785,54 @@
           <t xml:space="preserve">
 Predominant pollen source</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="AB63" authorId="39" shapeId="0" xr:uid="{CAD6F154-41A5-4F64-8388-CBEB97C89259}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CHANGE: can be 1 or 2 generations, so updated to 2</t>
+      </text>
+    </comment>
+    <comment ref="A65" authorId="40" shapeId="0" xr:uid="{1E4C6D7B-773E-4788-BF3C-131888397CFB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Name is now Osmia spinulosa</t>
+      </text>
+    </comment>
+    <comment ref="AB67" authorId="41" shapeId="0" xr:uid="{626116DB-0FD7-4DC4-BC9A-2688E7272B0D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CHANGE: can be 1 or 2, so updated to 2 generations</t>
+      </text>
+    </comment>
+    <comment ref="AB68" authorId="42" shapeId="0" xr:uid="{E7D896BC-CD78-47A1-9683-E443AB043521}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CHANGE: can be 1 or 2, so updated to 2 generations</t>
+      </text>
+    </comment>
+    <comment ref="AB69" authorId="43" shapeId="0" xr:uid="{2F6F2B58-30F5-49C8-8E42-0D2D3DA9CFC9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CHANGE: can be 1 or 2, so updated to 2 generations</t>
+      </text>
+    </comment>
+    <comment ref="AC82" authorId="44" shapeId="0" xr:uid="{2524F5E6-B21A-4D22-9469-D464A1BD715D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CHANGE: can be 1 or 2 generations, so updated to 2</t>
       </text>
     </comment>
     <comment ref="BR82" authorId="35" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
@@ -922,6 +1006,14 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB94" authorId="45" shapeId="0" xr:uid="{5BAD5E4C-964D-4B2B-9D61-7132CA3366A9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CHANGE: can be 1 or 2 generations, so updated to 2</t>
+      </text>
+    </comment>
     <comment ref="BV94" authorId="35" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
@@ -977,6 +1069,14 @@
           </rPr>
           <t>Predominant pollen source</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="A96" authorId="46" shapeId="0" xr:uid="{3309DEE3-0499-4496-831E-61D7737D9BDE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Name updated to Osmia bicornis</t>
       </text>
     </comment>
     <comment ref="BV96" authorId="35" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
@@ -1385,9 +1485,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="422">
   <si>
+    <t>species</t>
+  </si>
+  <si>
     <t>Reliance</t>
   </si>
   <si>
+    <t>generations</t>
+  </si>
+  <si>
+    <t>hab_start</t>
+  </si>
+  <si>
     <t>H_hab</t>
   </si>
   <si>
@@ -1400,6 +1509,12 @@
     <t>CG_hab</t>
   </si>
   <si>
+    <t>hab_end</t>
+  </si>
+  <si>
+    <t>activity_start</t>
+  </si>
+  <si>
     <t>H_early</t>
   </si>
   <si>
@@ -1427,564 +1542,900 @@
     <t>CA_late</t>
   </si>
   <si>
+    <t>CG_early</t>
+  </si>
+  <si>
+    <t>CG_mid</t>
+  </si>
+  <si>
+    <t>CG_late</t>
+  </si>
+  <si>
+    <t>activity_end</t>
+  </si>
+  <si>
+    <t>gens_start</t>
+  </si>
+  <si>
+    <t>G1_early</t>
+  </si>
+  <si>
+    <t>G1_mid</t>
+  </si>
+  <si>
+    <t>G1_late</t>
+  </si>
+  <si>
+    <t>G2_mid</t>
+  </si>
+  <si>
+    <t>G2_late</t>
+  </si>
+  <si>
+    <t>G3_mid</t>
+  </si>
+  <si>
+    <t>G3_late</t>
+  </si>
+  <si>
+    <t>gens_end</t>
+  </si>
+  <si>
+    <t>nest_start</t>
+  </si>
+  <si>
+    <t>H_N_Versatile</t>
+  </si>
+  <si>
+    <t>H_N_Aerial nester in stems, Beetle holes or dead wood</t>
+  </si>
+  <si>
+    <t>H_N_Bare ground on banks, paths and tracks</t>
+  </si>
+  <si>
+    <t>M_N_Versatile nesting site</t>
+  </si>
+  <si>
+    <t>M_N_Extensive grassland forage for nest building</t>
+  </si>
+  <si>
+    <t>M_N_Open grassland nesting site</t>
+  </si>
+  <si>
+    <t>M_N_Bare ground on banks, paths and tracks</t>
+  </si>
+  <si>
+    <t>M_N_Snail shells</t>
+  </si>
+  <si>
+    <t>CA_N_Bare ground on banks, paths and tracks</t>
+  </si>
+  <si>
+    <t>CG_N_Versatile nesting site</t>
+  </si>
+  <si>
+    <t>CG_N_Extensive grassland forage for nest building</t>
+  </si>
+  <si>
+    <t>CG_N_Open grassland nesting site</t>
+  </si>
+  <si>
+    <t>CG_N_Bare ground on banks, paths and tracks</t>
+  </si>
+  <si>
+    <t>CG_N_Snail shells</t>
+  </si>
+  <si>
+    <t>nest_end</t>
+  </si>
+  <si>
+    <t>damp_start</t>
+  </si>
+  <si>
+    <t>H_damp plant</t>
+  </si>
+  <si>
+    <t>M_damp plant</t>
+  </si>
+  <si>
+    <t>CA_damp plant</t>
+  </si>
+  <si>
+    <t>CG_damp plant</t>
+  </si>
+  <si>
+    <t>damp_end</t>
+  </si>
+  <si>
+    <t>plants_start</t>
+  </si>
+  <si>
+    <t>Aceraceae</t>
+  </si>
+  <si>
+    <t>Amaryllidaceae</t>
+  </si>
+  <si>
+    <t>Aquifoliaceae</t>
+  </si>
+  <si>
+    <t>Araliaceae</t>
+  </si>
+  <si>
+    <t>Balsaminaceae</t>
+  </si>
+  <si>
+    <t>Berberidaceae</t>
+  </si>
+  <si>
+    <t>Betulaceae</t>
+  </si>
+  <si>
+    <t>Boraginaceae</t>
+  </si>
+  <si>
+    <t>Brassicaceae</t>
+  </si>
+  <si>
+    <t>Campanulaceae</t>
+  </si>
+  <si>
+    <t>Caprifoliaceae</t>
+  </si>
+  <si>
+    <t>Caryophyllaceae</t>
+  </si>
+  <si>
+    <t>Celastraceae</t>
+  </si>
+  <si>
+    <t>Cistaceae</t>
+  </si>
+  <si>
+    <t>Compositae</t>
+  </si>
+  <si>
+    <t>Convolvulaceae</t>
+  </si>
+  <si>
+    <t>Cornaceae</t>
+  </si>
+  <si>
+    <t>Crassulaceae</t>
+  </si>
+  <si>
+    <t>Crops</t>
+  </si>
+  <si>
+    <t>Cucurbitaceae</t>
+  </si>
+  <si>
+    <t>Dipsacaceae</t>
+  </si>
+  <si>
+    <t>Ericaceae</t>
+  </si>
+  <si>
+    <t>Euphorbiaceae</t>
+  </si>
+  <si>
+    <t>Fabaceae</t>
+  </si>
+  <si>
+    <t>Fagaceae</t>
+  </si>
+  <si>
+    <t>Gentianaceae</t>
+  </si>
+  <si>
+    <t>Geraniaceae</t>
+  </si>
+  <si>
+    <t>Globulariaceae</t>
+  </si>
+  <si>
+    <t>Grossulariaceae</t>
+  </si>
+  <si>
+    <t>Hippocastanaceae</t>
+  </si>
+  <si>
+    <t>Hypericaceae</t>
+  </si>
+  <si>
+    <t>Iridaceae</t>
+  </si>
+  <si>
+    <t>Lamiaceae</t>
+  </si>
+  <si>
+    <t>Liliaceae</t>
+  </si>
+  <si>
+    <t>Linaceae</t>
+  </si>
+  <si>
+    <t>Lythraceae</t>
+  </si>
+  <si>
+    <t>Malvaceae</t>
+  </si>
+  <si>
+    <t>Oleaceae</t>
+  </si>
+  <si>
+    <t>Onagraceae</t>
+  </si>
+  <si>
+    <t>Papaveraceae</t>
+  </si>
+  <si>
+    <t>Plantaginaceae</t>
+  </si>
+  <si>
+    <t>Plumbaginaceae</t>
+  </si>
+  <si>
+    <t>Polemoniaceae</t>
+  </si>
+  <si>
+    <t>Polygonaceae</t>
+  </si>
+  <si>
+    <t>Primulaceae</t>
+  </si>
+  <si>
+    <t>Ranunculaceae</t>
+  </si>
+  <si>
+    <t>Resedaceae</t>
+  </si>
+  <si>
+    <t>Rhamnaceae</t>
+  </si>
+  <si>
+    <t>Rosaceae</t>
+  </si>
+  <si>
+    <t>Rubiaceae</t>
+  </si>
+  <si>
+    <t>Salicaceae</t>
+  </si>
+  <si>
+    <t>Saxifragaceae</t>
+  </si>
+  <si>
+    <t>Scrophulariaceae</t>
+  </si>
+  <si>
+    <t>Solanaceae</t>
+  </si>
+  <si>
+    <t>Tiliaceae</t>
+  </si>
+  <si>
+    <t>Umbelliferae</t>
+  </si>
+  <si>
+    <t>Urticaceae</t>
+  </si>
+  <si>
+    <t>Valerianaceae</t>
+  </si>
+  <si>
+    <t>Violaceae</t>
+  </si>
+  <si>
+    <t>plants_end</t>
+  </si>
+  <si>
+    <t>flightperiod</t>
+  </si>
+  <si>
+    <t>generationssource</t>
+  </si>
+  <si>
+    <t>Andrena bicolor</t>
+  </si>
+  <si>
+    <t>https://www.naturespot.org.uk/species/andrena-bicolor</t>
+  </si>
+  <si>
+    <t>Andrena bucephala</t>
+  </si>
+  <si>
+    <t>Andrena carantonica</t>
+  </si>
+  <si>
+    <t>https://www.naturespot.org.uk/species/andrena-scotica-carantonica</t>
+  </si>
+  <si>
+    <t>Andrena chrysosceles</t>
+  </si>
+  <si>
+    <t>https://www.naturespot.org.uk/species/andrena-chrysosceles</t>
+  </si>
+  <si>
+    <t>Andrena cineraria</t>
+  </si>
+  <si>
+    <t>https://www.naturespot.org.uk/species/grey-mining-bee</t>
+  </si>
+  <si>
+    <t>Andrena dorsata</t>
+  </si>
+  <si>
+    <t>https://www.naturespot.org.uk/species/andrena-dorsata</t>
+  </si>
+  <si>
+    <t>Andrena flavipes</t>
+  </si>
+  <si>
+    <t>https://www.naturespot.org.uk/species/yellow-legged-mining-bee</t>
+  </si>
+  <si>
+    <t>Andrena florea</t>
+  </si>
+  <si>
+    <t>Andrena fucata</t>
+  </si>
+  <si>
+    <t>https://www.naturespot.org.uk/species/painted-mining-bee</t>
+  </si>
+  <si>
+    <t>Andrena fulva</t>
+  </si>
+  <si>
+    <t>https://www.naturespot.org.uk/species/tawny-mining-bee</t>
+  </si>
+  <si>
+    <t>Andrena fulvago</t>
+  </si>
+  <si>
+    <t>Field Guide to the Bees of Great Britain and Ireland By Steven Falk 2019 ; https://books.google.co.uk/books?id=q93kDwAAQBAJ&amp;pg=PT301&amp;lpg=PT301&amp;dq=Andrena+tibialis+number+of+generations+in+a+year+flight+period&amp;source=bl&amp;ots=CCHyLAwJbG&amp;sig=ACfU3U2P0MG21zczfQBGq7wbTl5hJaJSyA&amp;hl=en&amp;sa=X#v=onepage&amp;q=Andrena%20tibialis%20number%20of%20generations%20in%20a%20year%20flight%20period&amp;f=false</t>
+  </si>
+  <si>
+    <t>Andrena haemorrhoa</t>
+  </si>
+  <si>
+    <t>Andrena hattorfiana</t>
+  </si>
+  <si>
+    <t>Andrena helvola</t>
+  </si>
+  <si>
+    <t>Andrena humilis</t>
+  </si>
+  <si>
+    <t>https://www.naturespot.org.uk/species/andrena-humilis ; https://www.bwars.com/latest_content?page=135</t>
+  </si>
+  <si>
+    <t>Andrena labialis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.naturespot.org.uk/species/andrena-labialis </t>
+  </si>
+  <si>
+    <t>Andrena labiata</t>
+  </si>
+  <si>
+    <t>https://www.naturespot.org.uk/species/girdled-mining-bee</t>
+  </si>
+  <si>
+    <t>Andrena lathyri</t>
+  </si>
+  <si>
+    <t>Andrena minutula</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/photos/63075200@N07/albums/72157639393479716/</t>
+  </si>
+  <si>
+    <t>Andrena minutuloides</t>
+  </si>
+  <si>
+    <t>Andrena nigroaenea</t>
+  </si>
+  <si>
+    <t>Andrena nitida</t>
+  </si>
+  <si>
+    <t>Andrena proxima</t>
+  </si>
+  <si>
+    <t>Andrena semilaevis</t>
+  </si>
+  <si>
+    <t>Andrena subopaca</t>
+  </si>
+  <si>
+    <t>Andrena synadelpha</t>
+  </si>
+  <si>
+    <t>Andrena thoracica</t>
+  </si>
+  <si>
+    <t>Andrena tibialis</t>
+  </si>
+  <si>
+    <t>Andrena trimmerana</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/andrenidae/andrena-trimmerana</t>
+  </si>
+  <si>
+    <t>Andrena varians</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/andrenidae/andrena-varians</t>
+  </si>
+  <si>
+    <t>Andrena wilkella</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/andrenidae/andrena-wilkella</t>
+  </si>
+  <si>
+    <t>Anthidium manicatum</t>
+  </si>
+  <si>
+    <t>http://entnemdept.ufl.edu/creatures/MISC/BEES/Anthidium_manicatum.html</t>
+  </si>
+  <si>
+    <t>Anthophora furcata</t>
+  </si>
+  <si>
+    <t>https://bwars.com/sites/www.bwars.com/files/info_sheets/17_Anthophora_furcata_20110725.pdf</t>
+  </si>
+  <si>
+    <t>Anthophora plumipes</t>
+  </si>
+  <si>
+    <t>https://bwars.com/sites/www.bwars.com/files/info_sheets/05_Anthophora_plumipes_1col_infosheet.pdf</t>
+  </si>
+  <si>
+    <t>Anthophora quadrimaculata</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/apidae/anthophora-quadrimaculata</t>
+  </si>
+  <si>
+    <t>Bombus distinguendus</t>
+  </si>
+  <si>
+    <t>Overwintered queens are found in May and June, workers from June to September and males in August and September.</t>
+  </si>
+  <si>
+    <t>https://www.bumblebeeconservation.org/wp-content/uploads/2017/11/Slater-Great-yellow-bumblebee-Factsheet-02.15.pdf ; https://www.bwars.com/index.php?q=bee/apidae/bombus-distinguendus</t>
+  </si>
+  <si>
+    <t>Bombus hortorum</t>
+  </si>
+  <si>
+    <t>The species is eusocial with queens emerging from hibernation from March to June; workers are present from late April onwards, and males and new females from July to October.</t>
+  </si>
+  <si>
+    <t>https://www.bumblebee.org/hort.htm ; http://www.bloomsforbees.co.uk/id-guide/garden-bumblebee/  ; https://www.bwars.com/bee/apidae/bombus-hortorum</t>
+  </si>
+  <si>
+    <t>Bombus humilis</t>
+  </si>
+  <si>
+    <t>Overwintered queens search for nesting sites during May and early June. Workers fly between June and September; males during August and September.</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/apidae/bombus-humilis</t>
+  </si>
+  <si>
+    <t>Bombus jonellus</t>
+  </si>
+  <si>
+    <t>In southern lowland areas B. jonellus is often bivoltine, with first-generation queens searching for nest sites in March, and males and new females are produced in May. These queens may either enter hibernation or found new nests in June. These nests produce their sexuals in late August or September. In northern and upland areas nests are not founded until June, with males in late August and September. Workers may therefore be found between April and September in southern and lowland areas, but only between July and September in northern or upland areas.</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/apidae/bombus-jonellus</t>
+  </si>
+  <si>
+    <t>Bombus lapidarius</t>
+  </si>
+  <si>
+    <t>The species is eusocial, with queens emerging from hibernation in March, workers present from April onwards, and males and new females from July to early October.</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/apidae/bombus-lapidarius</t>
+  </si>
+  <si>
+    <t>Bombus lucorum</t>
+  </si>
+  <si>
+    <t>female: March to Oct, male: May to Oct</t>
+  </si>
+  <si>
+    <t>http://www.bloomsforbees.co.uk/id-guide/white-tailed-bumblebee/</t>
+  </si>
+  <si>
+    <t>Bombus muscorum</t>
+  </si>
+  <si>
+    <t>The species is eusocial, with queens emerging from hibernation in May, workers present from June onwards and males and new females from July to early September.</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/index.php?q=bee/apidae/bombus-muscorum</t>
+  </si>
+  <si>
+    <t>Bombus pascuorum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The species is eusocial, with queens emerging from hibernation from March to June; workers are present from April onwards, and males and new females from July to October. </t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/index.php?q=bee/apidae/bombus-pascuorum</t>
+  </si>
+  <si>
+    <t>Bombus pratorum</t>
+  </si>
+  <si>
+    <t>Bivoltine in the south, with a smaller late-summer generation; univoltine towards the north. Nest-searching queens are among the first species to emerge throughout its range, being present from March to May, according to latitude. The males are similarly early to emerge, often being seen by the end of May or June.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bwars.com/bee/apidae/bombus-pratorum ; http://www.bloomsforbees.co.uk/id-guide/early-bumblebee/ </t>
+  </si>
+  <si>
+    <t>Bombus ruderarius</t>
+  </si>
+  <si>
+    <t>The first queens leave their hibernation sites from mid- to late April onwards (there has been the occasional sighting in March)The colony dies during August or early September ; Queens fly from April, workers from May, and males and new queens from June</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/index.php?q=bee/apidae/bombus-ruderarius ; https://www.bumblebee.org/uncommonSp.htm</t>
+  </si>
+  <si>
+    <t>Bombus ruderatus</t>
+  </si>
+  <si>
+    <t>The species is eusocial with queens emerging from hibernation from April to June; workers are present from May, and males and new females from July to October.</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/index.php?q=bee/apidae/bombus-ruderatus ; https://www.bumblebee.org/uncommonSp.htm</t>
+  </si>
+  <si>
+    <t>Bombus soroeensis</t>
+  </si>
+  <si>
+    <t>Univoltine. Nest searching queens are among the last species to emerge throughout its range, being present in June to August, according to latitude. The males, are similarly late to emerge, often not being seen until September and October.</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/index.php?q=bee/apidae/bombus-soroeensis</t>
+  </si>
+  <si>
+    <t>Bombus sylvarum</t>
+  </si>
+  <si>
+    <t>Late May until September ; Queens fly from May, workers from late June, and males and new queens from August</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/apidae/bombus-sylvarum ; https://www.bumblebee.org/uncommonSp.htm</t>
+  </si>
+  <si>
+    <t>Bombus terrestris</t>
+  </si>
+  <si>
+    <t>Queens fly from February, workers from April, and males and new queens can be seen as early as late May. In the south two generations a year are more and more common, with the second generation foraging as late as October. There have even been reports of three generations a year.</t>
+  </si>
+  <si>
+    <t>https://www.bumblebee.org/terr.htm</t>
+  </si>
+  <si>
+    <t>Chelostoma campanularum</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/megachilidae/chelostoma-campanularum</t>
+  </si>
+  <si>
+    <t>Chelostoma florisomne</t>
+  </si>
+  <si>
+    <t>Colletes daviesanus</t>
+  </si>
+  <si>
+    <t>Colletes hederae</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/colletidae/colletes-hederae</t>
+  </si>
+  <si>
+    <t>Colletes similis</t>
+  </si>
+  <si>
+    <t>Dasypoda hirtipes</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/melittidae/dasypoda-hirtipes</t>
+  </si>
+  <si>
+    <t>Dufourea minuta</t>
+  </si>
+  <si>
+    <t>Eucera longicornis</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/apidae/eucera-longicornis</t>
+  </si>
+  <si>
+    <t>Eucera nigrescens</t>
+  </si>
+  <si>
+    <t>Halictus eurygnathus</t>
+  </si>
+  <si>
+    <t>Halictus rubicundus</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/halictidae/halictus-rubicundus</t>
+  </si>
+  <si>
+    <t>Halictus tumulorum</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/halictidae/halictus-tumulorum</t>
+  </si>
+  <si>
+    <t>Heriades truncorum</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/megachilidae/heriades-truncorum</t>
+  </si>
+  <si>
+    <t>Hoplitis claviventris</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/megachilidae/hoplitis-claviventris</t>
+  </si>
+  <si>
+    <t>Hoplosmia spinulosa</t>
+  </si>
+  <si>
+    <t>https://www.gbif.org/species/143811332</t>
+  </si>
+  <si>
+    <t>Hylaeus annularis</t>
+  </si>
+  <si>
+    <t>Hylaeus communis</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/colletidae/hylaeus-communis</t>
+  </si>
+  <si>
+    <t>Hylaeus hyalinatus</t>
+  </si>
+  <si>
+    <t>Hylaeus signatus</t>
+  </si>
+  <si>
+    <t>Lasioglossum albipes</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/halictidae/lasioglossum-albipes</t>
+  </si>
+  <si>
+    <t>Lasioglossum calceatum</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/halictidae/lasioglossum-calceatum</t>
+  </si>
+  <si>
+    <t>Lasioglossum fulvicorne</t>
+  </si>
+  <si>
+    <t>Lasioglossum leucopus</t>
+  </si>
+  <si>
+    <t>Lasioglossum leucozonium</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/halictidae/lasioglossum-leucozonium</t>
+  </si>
+  <si>
+    <t>Lasioglossum malachurum</t>
+  </si>
+  <si>
+    <t>Lasioglossum morio</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/halictidae/lasioglossum-morio</t>
+  </si>
+  <si>
+    <t>Lasioglossum parvulum</t>
+  </si>
+  <si>
+    <t>Lasioglossum pauxillum</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/halictidae/lasioglossum-pauxillum</t>
+  </si>
+  <si>
+    <t>Lasioglossum puncticolle</t>
+  </si>
+  <si>
+    <t>Lasioglossum quadrinotatum</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/halictidae/lasioglossum-quadrinotatum</t>
+  </si>
+  <si>
+    <t>Lasioglossum semilucens</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/halictidae/lasioglossum-semilucens</t>
+  </si>
+  <si>
+    <t>Lasioglossum villosulum</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/halictidae/lasioglossum-villosulum</t>
+  </si>
+  <si>
+    <t>Lasioglossum xanthopus</t>
+  </si>
+  <si>
+    <t>Lasioglossum zonulum</t>
+  </si>
+  <si>
+    <t>Macropis europaea</t>
+  </si>
+  <si>
+    <t>Megachile centuncularis</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/megachilidae/megachile-centuncularis</t>
+  </si>
+  <si>
+    <t>Megachile ligniseca</t>
+  </si>
+  <si>
+    <t>Megachile versicolor</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/megachilidae/megachile-versicolor</t>
+  </si>
+  <si>
+    <t>Megachile willughbiella</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/megachilidae/megachile-willughbiella</t>
+  </si>
+  <si>
+    <t>Melitta haemorrhoidalis</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/melittidae/melitta-haemorrhoidalis</t>
+  </si>
+  <si>
+    <t>Melitta leporina</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/melittidae/melitta-leporina</t>
+  </si>
+  <si>
+    <t>Melitta tricincta</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/melittidae/melitta-tricincta</t>
+  </si>
+  <si>
+    <t>Osmia bicolor</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/megachilidae/osmia-bicolor</t>
+  </si>
+  <si>
+    <t>Osmia caerulescens</t>
+  </si>
+  <si>
+    <t>https://www.edphillipswildlife.com/osmia-caerulescens</t>
+  </si>
+  <si>
+    <t>Osmia leaiana</t>
+  </si>
+  <si>
+    <t>https://www.bwars.com/bee/megachilidae/osmia-leaiana</t>
+  </si>
+  <si>
+    <t>Osmia rufa</t>
+  </si>
+  <si>
+    <t>https://nurturing-nature.co.uk/solitary-bees-2/red-mason-bee-osmia-rufa-life-cycle-part-1/</t>
+  </si>
+  <si>
+    <t>Resource code</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Forages in hedge</t>
+  </si>
+  <si>
+    <t>Forage habitat</t>
+  </si>
+  <si>
+    <t>Forages in margin</t>
+  </si>
+  <si>
+    <t>Forages in crop (arable)</t>
+  </si>
+  <si>
+    <t>Forages in crop (grass)</t>
+  </si>
+  <si>
+    <t>Hedge - early flight period</t>
+  </si>
+  <si>
+    <t>Habitat used x Activity periods</t>
+  </si>
+  <si>
+    <t>Hedge - mid flight period</t>
+  </si>
+  <si>
+    <t>Hedge - late flight period</t>
+  </si>
+  <si>
+    <t>Margin - early flight period</t>
+  </si>
+  <si>
+    <t>Margin - mid flight period</t>
+  </si>
+  <si>
+    <t>Margin - late flight period</t>
+  </si>
+  <si>
+    <t>Crop (arable) - early flight period</t>
+  </si>
+  <si>
+    <t>Crop (arable) - mid flight period</t>
+  </si>
+  <si>
+    <t>Crop (arable) - late flight period</t>
+  </si>
+  <si>
     <t>CG_Early</t>
   </si>
   <si>
-    <t>CG_mid</t>
-  </si>
-  <si>
-    <t>CG_late</t>
-  </si>
-  <si>
-    <t>H_N_Versatile</t>
-  </si>
-  <si>
-    <t>H_N_Aerial nester in stems, Beetle holes or dead wood</t>
-  </si>
-  <si>
-    <t>H_N_Bare ground on banks, paths and tracks</t>
-  </si>
-  <si>
-    <t>M_N_Versatile nesting site</t>
-  </si>
-  <si>
-    <t>M_N_Extensive grassland forage for nest building</t>
-  </si>
-  <si>
-    <t>M_N_Open grassland nesting site</t>
-  </si>
-  <si>
-    <t>M_N_Bare ground on banks, paths and tracks</t>
-  </si>
-  <si>
-    <t>CA_N_Bare ground on banks, paths and tracks</t>
-  </si>
-  <si>
-    <t>CG_N_Versatile nesting site</t>
-  </si>
-  <si>
-    <t>CG_N_Extensive grassland forage for nest building</t>
-  </si>
-  <si>
-    <t>CG_N_Open grassland nesting site</t>
-  </si>
-  <si>
-    <t>CG_N_Bare ground on banks, paths and tracks</t>
-  </si>
-  <si>
-    <t>H_damp plant</t>
-  </si>
-  <si>
-    <t>M_damp plant</t>
-  </si>
-  <si>
-    <t>CA_damp plant</t>
-  </si>
-  <si>
-    <t>CG_damp plant</t>
-  </si>
-  <si>
-    <t>Andrena florea</t>
-  </si>
-  <si>
-    <t>Andrena labiata</t>
-  </si>
-  <si>
-    <t>Andrena lathyri</t>
-  </si>
-  <si>
-    <t>Andrena proxima</t>
-  </si>
-  <si>
-    <t>Anthophora plumipes</t>
-  </si>
-  <si>
-    <t>Bombus humilis</t>
-  </si>
-  <si>
-    <t>Bombus ruderarius</t>
-  </si>
-  <si>
-    <t>Bombus sylvarum</t>
-  </si>
-  <si>
-    <t>Colletes hederae</t>
-  </si>
-  <si>
-    <t>Colletes similis</t>
-  </si>
-  <si>
-    <t>Eucera longicornis</t>
-  </si>
-  <si>
-    <t>Eucera nigrescens</t>
-  </si>
-  <si>
-    <t>Halictus eurygnathus</t>
-  </si>
-  <si>
-    <t>Halictus rubicundus</t>
-  </si>
-  <si>
-    <t>Halictus tumulorum</t>
-  </si>
-  <si>
-    <t>Lasioglossum pauxillum</t>
-  </si>
-  <si>
-    <t>Macropis europaea</t>
-  </si>
-  <si>
-    <t>Megachile centuncularis</t>
-  </si>
-  <si>
-    <t>Megachile ligniseca</t>
-  </si>
-  <si>
-    <t>Megachile versicolor</t>
-  </si>
-  <si>
-    <t>Fabaceae</t>
-  </si>
-  <si>
-    <t>Lamiaceae</t>
-  </si>
-  <si>
-    <t>Campanulaceae</t>
-  </si>
-  <si>
-    <t>Scrophulariaceae</t>
-  </si>
-  <si>
-    <t>Caryophyllaceae</t>
-  </si>
-  <si>
-    <t>Boraginaceae</t>
-  </si>
-  <si>
-    <t>Papaveraceae</t>
-  </si>
-  <si>
-    <t>Rosaceae</t>
-  </si>
-  <si>
-    <t>Onagraceae</t>
-  </si>
-  <si>
-    <t>Dipsacaceae</t>
-  </si>
-  <si>
-    <t>Convolvulaceae</t>
-  </si>
-  <si>
-    <t>Ranunculaceae</t>
-  </si>
-  <si>
-    <t>Araliaceae</t>
-  </si>
-  <si>
-    <t>Cornaceae</t>
-  </si>
-  <si>
-    <t>Liliaceae</t>
-  </si>
-  <si>
-    <t>Lythraceae</t>
-  </si>
-  <si>
-    <t>Malvaceae</t>
-  </si>
-  <si>
-    <t>Crops</t>
-  </si>
-  <si>
-    <t>Brassicaceae</t>
-  </si>
-  <si>
-    <t>Aceraceae</t>
-  </si>
-  <si>
-    <t>Aquifoliaceae</t>
-  </si>
-  <si>
-    <t>Cucurbitaceae</t>
-  </si>
-  <si>
-    <t>Fagaceae</t>
-  </si>
-  <si>
-    <t>Grossulariaceae</t>
-  </si>
-  <si>
-    <t>Caprifoliaceae</t>
-  </si>
-  <si>
-    <t>Resedaceae</t>
-  </si>
-  <si>
-    <t>Rhamnaceae</t>
-  </si>
-  <si>
-    <t>Cistaceae</t>
-  </si>
-  <si>
-    <t>Hippocastanaceae</t>
-  </si>
-  <si>
-    <t>Berberidaceae</t>
-  </si>
-  <si>
-    <t>Polygonaceae</t>
-  </si>
-  <si>
-    <t>Primulaceae</t>
-  </si>
-  <si>
-    <t>Tiliaceae</t>
-  </si>
-  <si>
-    <t>Geraniaceae</t>
-  </si>
-  <si>
-    <t>Plantaginaceae</t>
-  </si>
-  <si>
-    <t>Amaryllidaceae</t>
-  </si>
-  <si>
-    <t>Euphorbiaceae</t>
-  </si>
-  <si>
-    <t>Rubiaceae</t>
-  </si>
-  <si>
-    <t>Oleaceae</t>
-  </si>
-  <si>
-    <t>Gentianaceae</t>
-  </si>
-  <si>
-    <t>Saxifragaceae</t>
-  </si>
-  <si>
-    <t>Ericaceae</t>
-  </si>
-  <si>
-    <t>Crassulaceae</t>
-  </si>
-  <si>
-    <t>Hypericaceae</t>
-  </si>
-  <si>
-    <t>Globulariaceae</t>
-  </si>
-  <si>
-    <t>Plumbaginaceae</t>
-  </si>
-  <si>
-    <t>Valerianaceae</t>
-  </si>
-  <si>
-    <t>Linaceae</t>
-  </si>
-  <si>
-    <t>Violaceae</t>
-  </si>
-  <si>
-    <t>Iridaceae</t>
-  </si>
-  <si>
-    <t>Polemoniaceae</t>
-  </si>
-  <si>
-    <t>Betulaceae</t>
-  </si>
-  <si>
-    <t>Solanaceae</t>
-  </si>
-  <si>
-    <t>Balsaminaceae</t>
-  </si>
-  <si>
-    <t>Andrena bicolor</t>
-  </si>
-  <si>
-    <t>Andrena bucephala</t>
-  </si>
-  <si>
-    <t>Andrena carantonica</t>
-  </si>
-  <si>
-    <t>Andrena chrysosceles</t>
-  </si>
-  <si>
-    <t>Andrena cineraria</t>
-  </si>
-  <si>
-    <t>Andrena dorsata</t>
-  </si>
-  <si>
-    <t>Andrena flavipes</t>
-  </si>
-  <si>
-    <t>Andrena fucata</t>
-  </si>
-  <si>
-    <t>Andrena fulva</t>
-  </si>
-  <si>
-    <t>Andrena fulvago</t>
-  </si>
-  <si>
-    <t>Andrena haemorrhoa</t>
-  </si>
-  <si>
-    <t>Andrena hattorfiana</t>
-  </si>
-  <si>
-    <t>Andrena helvola</t>
-  </si>
-  <si>
-    <t>Andrena humilis</t>
-  </si>
-  <si>
-    <t>Andrena labialis</t>
-  </si>
-  <si>
-    <t>Andrena minutula</t>
-  </si>
-  <si>
-    <t>Andrena minutuloides</t>
-  </si>
-  <si>
-    <t>Andrena nigroaenea</t>
-  </si>
-  <si>
-    <t>Andrena nitida</t>
-  </si>
-  <si>
-    <t>Andrena semilaevis</t>
-  </si>
-  <si>
-    <t>Andrena subopaca</t>
-  </si>
-  <si>
-    <t>Andrena synadelpha</t>
-  </si>
-  <si>
-    <t>Andrena thoracica</t>
-  </si>
-  <si>
-    <t>Andrena tibialis</t>
-  </si>
-  <si>
-    <t>Andrena trimmerana</t>
-  </si>
-  <si>
-    <t>Andrena varians</t>
-  </si>
-  <si>
-    <t>Andrena wilkella</t>
-  </si>
-  <si>
-    <t>Anthidium manicatum</t>
-  </si>
-  <si>
-    <t>Anthophora furcata</t>
-  </si>
-  <si>
-    <t>Anthophora quadrimaculata</t>
-  </si>
-  <si>
-    <t>Bombus distinguendus</t>
-  </si>
-  <si>
-    <t>Bombus hortorum</t>
-  </si>
-  <si>
-    <t>Bombus jonellus</t>
-  </si>
-  <si>
-    <t>Bombus lapidarius</t>
-  </si>
-  <si>
-    <t>Bombus lucorum</t>
-  </si>
-  <si>
-    <t>Bombus muscorum</t>
-  </si>
-  <si>
-    <t>Bombus pascuorum</t>
-  </si>
-  <si>
-    <t>Bombus pratorum</t>
-  </si>
-  <si>
-    <t>Bombus ruderatus</t>
-  </si>
-  <si>
-    <t>Bombus soroeensis</t>
-  </si>
-  <si>
-    <t>Bombus terrestris</t>
-  </si>
-  <si>
-    <t>Chelostoma campanularum</t>
-  </si>
-  <si>
-    <t>Chelostoma florisomne</t>
-  </si>
-  <si>
-    <t>Colletes daviesanus</t>
-  </si>
-  <si>
-    <t>Dasypoda hirtipes</t>
-  </si>
-  <si>
-    <t>Dufourea minuta</t>
-  </si>
-  <si>
-    <t>Heriades truncorum</t>
-  </si>
-  <si>
-    <t>Hoplitis claviventris</t>
-  </si>
-  <si>
-    <t>Hoplosmia spinulosa</t>
-  </si>
-  <si>
-    <t>Hylaeus annularis</t>
-  </si>
-  <si>
-    <t>Hylaeus communis</t>
-  </si>
-  <si>
-    <t>Hylaeus hyalinatus</t>
-  </si>
-  <si>
-    <t>Hylaeus signatus</t>
-  </si>
-  <si>
-    <t>Lasioglossum albipes</t>
-  </si>
-  <si>
-    <t>Lasioglossum calceatum</t>
-  </si>
-  <si>
-    <t>Lasioglossum fulvicorne</t>
-  </si>
-  <si>
-    <t>Lasioglossum leucopus</t>
-  </si>
-  <si>
-    <t>Lasioglossum leucozonium</t>
-  </si>
-  <si>
-    <t>Lasioglossum morio</t>
-  </si>
-  <si>
-    <t>Lasioglossum parvulum</t>
-  </si>
-  <si>
-    <t>Lasioglossum puncticolle</t>
-  </si>
-  <si>
-    <t>Lasioglossum quadrinotatum</t>
-  </si>
-  <si>
-    <t>Lasioglossum semilucens</t>
-  </si>
-  <si>
-    <t>Lasioglossum villosulum</t>
-  </si>
-  <si>
-    <t>Lasioglossum xanthopus</t>
-  </si>
-  <si>
-    <t>Megachile willughbiella</t>
-  </si>
-  <si>
-    <t>Melitta haemorrhoidalis</t>
-  </si>
-  <si>
-    <t>Melitta leporina</t>
-  </si>
-  <si>
-    <t>Melitta tricincta</t>
-  </si>
-  <si>
-    <t>Osmia bicolor</t>
-  </si>
-  <si>
-    <t>Osmia caerulescens</t>
-  </si>
-  <si>
-    <t>Osmia leaiana</t>
-  </si>
-  <si>
-    <t>Osmia rufa</t>
-  </si>
-  <si>
-    <t>Resource code</t>
-  </si>
-  <si>
-    <t>Forages in hedge</t>
-  </si>
-  <si>
-    <t>Forages in margin</t>
-  </si>
-  <si>
-    <t>Hedge - early flight period</t>
-  </si>
-  <si>
-    <t>Hedge - mid flight period</t>
-  </si>
-  <si>
-    <t>Hedge - late flight period</t>
-  </si>
-  <si>
-    <t>Margin - mid flight period</t>
-  </si>
-  <si>
-    <t>Margin - late flight period</t>
-  </si>
-  <si>
-    <t>Crop (arable) - early flight period</t>
-  </si>
-  <si>
-    <t>Crop (arable) - mid flight period</t>
-  </si>
-  <si>
-    <t>Crop (arable) - late flight period</t>
-  </si>
-  <si>
     <t>Crop (grass) - early flight period</t>
   </si>
   <si>
     <t>Crop (grass) - mid flight period</t>
   </si>
   <si>
-    <t>Margin - early flight period</t>
-  </si>
-  <si>
-    <t>Forages in crop (arable)</t>
-  </si>
-  <si>
-    <t>Forages in crop (grass)</t>
+    <t>Crop (grass) - late flight period</t>
   </si>
   <si>
     <t>Hedge nest</t>
   </si>
   <si>
+    <t>Nest habitats and nest sites within habitats</t>
+  </si>
+  <si>
     <t>Margin nest</t>
   </si>
   <si>
     <t>Crop (arable) nest</t>
   </si>
   <si>
+    <t>Crop (grass) nest</t>
+  </si>
+  <si>
     <t>Hedge - plants associated with damp areas specifically</t>
   </si>
   <si>
+    <t>Damp plants used</t>
+  </si>
+  <si>
     <t>Margin - plants associated with damp areas specifically</t>
   </si>
   <si>
@@ -1992,270 +2443,6 @@
   </si>
   <si>
     <t>Crop (grass) - plants associated with damp areas specifically</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>Compositae</t>
-  </si>
-  <si>
-    <t>Umbelliferae</t>
-  </si>
-  <si>
-    <t>Salicaceae</t>
-  </si>
-  <si>
-    <t>Urticaceae</t>
-  </si>
-  <si>
-    <t>CG_early</t>
-  </si>
-  <si>
-    <t>generations</t>
-  </si>
-  <si>
-    <t>Crop (grass) - late flight period</t>
-  </si>
-  <si>
-    <t>Crop (grass) nest</t>
-  </si>
-  <si>
-    <t>https://www.naturespot.org.uk/species/andrena-bicolor</t>
-  </si>
-  <si>
-    <t>https://www.naturespot.org.uk/species/andrena-scotica-carantonica</t>
-  </si>
-  <si>
-    <t>https://www.naturespot.org.uk/species/andrena-chrysosceles</t>
-  </si>
-  <si>
-    <t>https://www.naturespot.org.uk/species/grey-mining-bee</t>
-  </si>
-  <si>
-    <t>https://www.naturespot.org.uk/species/andrena-dorsata</t>
-  </si>
-  <si>
-    <t>https://www.naturespot.org.uk/species/yellow-legged-mining-bee</t>
-  </si>
-  <si>
-    <t>https://www.naturespot.org.uk/species/painted-mining-bee</t>
-  </si>
-  <si>
-    <t>https://www.naturespot.org.uk/species/tawny-mining-bee</t>
-  </si>
-  <si>
-    <t>Field Guide to the Bees of Great Britain and Ireland By Steven Falk 2019 ; https://books.google.co.uk/books?id=q93kDwAAQBAJ&amp;pg=PT301&amp;lpg=PT301&amp;dq=Andrena+tibialis+number+of+generations+in+a+year+flight+period&amp;source=bl&amp;ots=CCHyLAwJbG&amp;sig=ACfU3U2P0MG21zczfQBGq7wbTl5hJaJSyA&amp;hl=en&amp;sa=X#v=onepage&amp;q=Andrena%20tibialis%20number%20of%20generations%20in%20a%20year%20flight%20period&amp;f=false</t>
-  </si>
-  <si>
-    <t>https://www.naturespot.org.uk/species/andrena-humilis ; https://www.bwars.com/latest_content?page=135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.naturespot.org.uk/species/andrena-labialis </t>
-  </si>
-  <si>
-    <t>https://www.naturespot.org.uk/species/girdled-mining-bee</t>
-  </si>
-  <si>
-    <t>https://www.flickr.com/photos/63075200@N07/albums/72157639393479716/</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/andrenidae/andrena-trimmerana</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/andrenidae/andrena-varians</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/andrenidae/andrena-wilkella</t>
-  </si>
-  <si>
-    <t>http://entnemdept.ufl.edu/creatures/MISC/BEES/Anthidium_manicatum.html</t>
-  </si>
-  <si>
-    <t>https://bwars.com/sites/www.bwars.com/files/info_sheets/17_Anthophora_furcata_20110725.pdf</t>
-  </si>
-  <si>
-    <t>https://bwars.com/sites/www.bwars.com/files/info_sheets/05_Anthophora_plumipes_1col_infosheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/apidae/anthophora-quadrimaculata</t>
-  </si>
-  <si>
-    <t>Overwintered queens are found in May and June, workers from June to September and males in August and September.</t>
-  </si>
-  <si>
-    <t>https://www.bumblebeeconservation.org/wp-content/uploads/2017/11/Slater-Great-yellow-bumblebee-Factsheet-02.15.pdf ; https://www.bwars.com/index.php?q=bee/apidae/bombus-distinguendus</t>
-  </si>
-  <si>
-    <t>The species is eusocial with queens emerging from hibernation from March to June; workers are present from late April onwards, and males and new females from July to October.</t>
-  </si>
-  <si>
-    <t>https://www.bumblebee.org/hort.htm ; http://www.bloomsforbees.co.uk/id-guide/garden-bumblebee/  ; https://www.bwars.com/bee/apidae/bombus-hortorum</t>
-  </si>
-  <si>
-    <t>Overwintered queens search for nesting sites during May and early June. Workers fly between June and September; males during August and September.</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/apidae/bombus-humilis</t>
-  </si>
-  <si>
-    <t>In southern lowland areas B. jonellus is often bivoltine, with first-generation queens searching for nest sites in March, and males and new females are produced in May. These queens may either enter hibernation or found new nests in June. These nests produce their sexuals in late August or September. In northern and upland areas nests are not founded until June, with males in late August and September. Workers may therefore be found between April and September in southern and lowland areas, but only between July and September in northern or upland areas.</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/apidae/bombus-jonellus</t>
-  </si>
-  <si>
-    <t>The species is eusocial, with queens emerging from hibernation in March, workers present from April onwards, and males and new females from July to early October.</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/apidae/bombus-lapidarius</t>
-  </si>
-  <si>
-    <t>female: March to Oct, male: May to Oct</t>
-  </si>
-  <si>
-    <t>http://www.bloomsforbees.co.uk/id-guide/white-tailed-bumblebee/</t>
-  </si>
-  <si>
-    <t>The species is eusocial, with queens emerging from hibernation in May, workers present from June onwards and males and new females from July to early September.</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/index.php?q=bee/apidae/bombus-muscorum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The species is eusocial, with queens emerging from hibernation from March to June; workers are present from April onwards, and males and new females from July to October. </t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/index.php?q=bee/apidae/bombus-pascuorum</t>
-  </si>
-  <si>
-    <t>Bivoltine in the south, with a smaller late-summer generation; univoltine towards the north. Nest-searching queens are among the first species to emerge throughout its range, being present from March to May, according to latitude. The males are similarly early to emerge, often being seen by the end of May or June.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bwars.com/bee/apidae/bombus-pratorum ; http://www.bloomsforbees.co.uk/id-guide/early-bumblebee/ </t>
-  </si>
-  <si>
-    <t>The first queens leave their hibernation sites from mid- to late April onwards (there has been the occasional sighting in March)The colony dies during August or early September ; Queens fly from April, workers from May, and males and new queens from June</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/index.php?q=bee/apidae/bombus-ruderarius ; https://www.bumblebee.org/uncommonSp.htm</t>
-  </si>
-  <si>
-    <t>The species is eusocial with queens emerging from hibernation from April to June; workers are present from May, and males and new females from July to October.</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/index.php?q=bee/apidae/bombus-ruderatus ; https://www.bumblebee.org/uncommonSp.htm</t>
-  </si>
-  <si>
-    <t>Univoltine. Nest searching queens are among the last species to emerge throughout its range, being present in June to August, according to latitude. The males, are similarly late to emerge, often not being seen until September and October.</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/index.php?q=bee/apidae/bombus-soroeensis</t>
-  </si>
-  <si>
-    <t>Late May until September ; Queens fly from May, workers from late June, and males and new queens from August</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/apidae/bombus-sylvarum ; https://www.bumblebee.org/uncommonSp.htm</t>
-  </si>
-  <si>
-    <t>Queens fly from February, workers from April, and males and new queens can be seen as early as late May. In the south two generations a year are more and more common, with the second generation foraging as late as October. There have even been reports of three generations a year.</t>
-  </si>
-  <si>
-    <t>https://www.bumblebee.org/terr.htm</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/megachilidae/chelostoma-campanularum</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/colletidae/colletes-hederae</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/melittidae/dasypoda-hirtipes</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/apidae/eucera-longicornis</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/halictidae/halictus-rubicundus</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/halictidae/halictus-tumulorum</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/megachilidae/heriades-truncorum</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/megachilidae/hoplitis-claviventris</t>
-  </si>
-  <si>
-    <t>https://www.gbif.org/species/143811332</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/colletidae/hylaeus-communis</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/halictidae/lasioglossum-albipes</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/halictidae/lasioglossum-calceatum</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/halictidae/lasioglossum-leucozonium</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/halictidae/lasioglossum-morio</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/halictidae/lasioglossum-pauxillum</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/halictidae/lasioglossum-quadrinotatum</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/halictidae/lasioglossum-semilucens</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/halictidae/lasioglossum-villosulum</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/megachilidae/megachile-centuncularis</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/megachilidae/megachile-versicolor</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/megachilidae/megachile-willughbiella</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/melittidae/melitta-haemorrhoidalis</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/melittidae/melitta-leporina</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/melittidae/melitta-tricincta</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/megachilidae/osmia-bicolor</t>
-  </si>
-  <si>
-    <t>https://www.edphillipswildlife.com/osmia-caerulescens</t>
-  </si>
-  <si>
-    <t>https://www.bwars.com/bee/megachilidae/osmia-leaiana</t>
-  </si>
-  <si>
-    <t>https://nurturing-nature.co.uk/solitary-bees-2/red-mason-bee-osmia-rufa-life-cycle-part-1/</t>
-  </si>
-  <si>
-    <t>flightperiod</t>
-  </si>
-  <si>
-    <t>generationssource</t>
   </si>
   <si>
     <t>number of generations in a year</t>
@@ -2266,6 +2453,9 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>Andrena bicolor</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2394,6 +2584,9 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>Also Falk (2019) Field guide to the bees of Great Britain and Ireland'</t>
+  </si>
+  <si>
     <t>Bombus lapidarius</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2656,99 +2849,6 @@
   <si>
     <t>https://nurturing-nature.co.uk/solitary-bees-2/red-mason-bee-osmia-rufa-life-cycle-part-1/</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Also Falk (2019) Field guide to the bees of Great Britain and Ireland'</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Nest habitats and nest sites within habitats</t>
-  </si>
-  <si>
-    <t>Habitat used x Activity periods</t>
-  </si>
-  <si>
-    <t>Damp plants used</t>
-  </si>
-  <si>
-    <t>Forage habitat</t>
-  </si>
-  <si>
-    <t>hab_start</t>
-  </si>
-  <si>
-    <t>hab_end</t>
-  </si>
-  <si>
-    <t>activity_start</t>
-  </si>
-  <si>
-    <t>activity_end</t>
-  </si>
-  <si>
-    <t>damp_start</t>
-  </si>
-  <si>
-    <t>damp_end</t>
-  </si>
-  <si>
-    <t>plants_start</t>
-  </si>
-  <si>
-    <t>plants_end</t>
-  </si>
-  <si>
-    <t>Celastraceae</t>
-  </si>
-  <si>
-    <t>nest_start</t>
-  </si>
-  <si>
-    <t>nest_end</t>
-  </si>
-  <si>
-    <t>G1_early</t>
-  </si>
-  <si>
-    <t>G1_mid</t>
-  </si>
-  <si>
-    <t>G1_late</t>
-  </si>
-  <si>
-    <t>G2_mid</t>
-  </si>
-  <si>
-    <t>G2_late</t>
-  </si>
-  <si>
-    <t>G3_mid</t>
-  </si>
-  <si>
-    <t>G3_late</t>
-  </si>
-  <si>
-    <t>gens_end</t>
-  </si>
-  <si>
-    <t>gens_start</t>
-  </si>
-  <si>
-    <t>Lasioglossum malachurum</t>
-  </si>
-  <si>
-    <t>Lasioglossum zonulum</t>
-  </si>
-  <si>
-    <t>CG_N_Snail shells</t>
-  </si>
-  <si>
-    <t>M_N_Snail shells</t>
   </si>
 </sst>
 </file>
@@ -2845,7 +2945,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2924,6 +3024,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -2991,7 +3097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -3101,12 +3207,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3132,6 +3245,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Elin Falla" id="{067D85F3-23F8-44DB-B5DD-A51EC18F2844}" userId="" providerId=""/>
   <person displayName="Alexa Varah" id="{5EF9E5D3-681E-492D-9B2C-3809CED31F23}" userId="Alexa Varah" providerId="None"/>
 </personList>
 </file>
@@ -3562,6 +3676,39 @@
   <threadedComment ref="DG1" dT="2020-06-11T14:31:41.46" personId="{5EF9E5D3-681E-492D-9B2C-3809CED31F23}" id="{4768BBEE-F1D9-4C9A-B773-CFC9D36109BD}">
     <text>[Apiaceae]</text>
   </threadedComment>
+  <threadedComment ref="Z21" dT="2021-06-24T16:14:33.11" personId="{067D85F3-23F8-44DB-B5DD-A51EC18F2844}" id="{EA7E67EC-FCD3-4BC8-AF74-8ACC99503F29}">
+    <text>CHANGE: new info shows 1 generation not 2</text>
+  </threadedComment>
+  <threadedComment ref="AB47" dT="2021-06-24T15:25:27.51" personId="{067D85F3-23F8-44DB-B5DD-A51EC18F2844}" id="{324C5099-8953-4DD1-A5D1-67198D5A33BF}">
+    <text>CHANGE: Butler had 2 generations, but new data suggests only 1</text>
+  </threadedComment>
+  <threadedComment ref="AA50" dT="2021-06-24T15:24:35.20" personId="{067D85F3-23F8-44DB-B5DD-A51EC18F2844}" id="{D5A0F095-F1F6-4ECA-9ADB-F47ADF46006D}">
+    <text>CHANGE: Butler had 1 here and none in G2, but new info suggests second generation</text>
+  </threadedComment>
+  <threadedComment ref="AB63" dT="2021-06-24T17:16:07.42" personId="{067D85F3-23F8-44DB-B5DD-A51EC18F2844}" id="{CAD6F154-41A5-4F64-8388-CBEB97C89259}">
+    <text>CHANGE: can be 1 or 2 generations, so updated to 2</text>
+  </threadedComment>
+  <threadedComment ref="A65" dT="2021-06-24T17:20:50.41" personId="{067D85F3-23F8-44DB-B5DD-A51EC18F2844}" id="{1E4C6D7B-773E-4788-BF3C-131888397CFB}">
+    <text>Name is now Osmia spinulosa</text>
+  </threadedComment>
+  <threadedComment ref="AB67" dT="2021-06-24T17:24:06.03" personId="{067D85F3-23F8-44DB-B5DD-A51EC18F2844}" id="{626116DB-0FD7-4DC4-BC9A-2688E7272B0D}">
+    <text>CHANGE: can be 1 or 2, so updated to 2 generations</text>
+  </threadedComment>
+  <threadedComment ref="AB68" dT="2021-06-24T17:25:42.44" personId="{067D85F3-23F8-44DB-B5DD-A51EC18F2844}" id="{E7D896BC-CD78-47A1-9683-E443AB043521}">
+    <text>CHANGE: can be 1 or 2, so updated to 2 generations</text>
+  </threadedComment>
+  <threadedComment ref="AB69" dT="2021-06-24T17:26:48.21" personId="{067D85F3-23F8-44DB-B5DD-A51EC18F2844}" id="{2F6F2B58-30F5-49C8-8E42-0D2D3DA9CFC9}">
+    <text>CHANGE: can be 1 or 2, so updated to 2 generations</text>
+  </threadedComment>
+  <threadedComment ref="AC82" dT="2021-06-24T17:36:14.51" personId="{067D85F3-23F8-44DB-B5DD-A51EC18F2844}" id="{2524F5E6-B21A-4D22-9469-D464A1BD715D}">
+    <text>CHANGE: can be 1 or 2 generations, so updated to 2</text>
+  </threadedComment>
+  <threadedComment ref="AB94" dT="2021-06-24T17:39:23.25" personId="{067D85F3-23F8-44DB-B5DD-A51EC18F2844}" id="{5BAD5E4C-964D-4B2B-9D61-7132CA3366A9}">
+    <text>CHANGE: can be 1 or 2 generations, so updated to 2</text>
+  </threadedComment>
+  <threadedComment ref="A96" dT="2021-06-24T17:40:30.75" personId="{067D85F3-23F8-44DB-B5DD-A51EC18F2844}" id="{3309DEE3-0499-4496-831E-61D7737D9BDE}">
+    <text>Name updated to Osmia bicornis</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -3570,393 +3717,393 @@
   <dimension ref="A1:DS111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U86" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL51" sqref="AL51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="34" customWidth="1"/>
-    <col min="5" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="10" width="7.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="34" customWidth="1"/>
+    <col min="5" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="10" width="7.7109375" style="34" customWidth="1"/>
     <col min="11" max="22" width="6" customWidth="1"/>
     <col min="23" max="24" width="6" style="34" customWidth="1"/>
     <col min="25" max="31" width="6" style="11" customWidth="1"/>
     <col min="32" max="33" width="6" style="34" customWidth="1"/>
-    <col min="34" max="34" width="8.83203125" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" customWidth="1"/>
-    <col min="36" max="36" width="12.5" customWidth="1"/>
-    <col min="37" max="37" width="8.83203125" customWidth="1"/>
-    <col min="38" max="38" width="11.83203125" customWidth="1"/>
-    <col min="39" max="39" width="9.6640625" customWidth="1"/>
-    <col min="40" max="47" width="8.83203125" customWidth="1"/>
-    <col min="48" max="49" width="8.83203125" style="34" customWidth="1"/>
-    <col min="50" max="53" width="8.83203125" customWidth="1"/>
-    <col min="54" max="55" width="8.83203125" style="34" customWidth="1"/>
-    <col min="56" max="114" width="8.83203125" customWidth="1"/>
-    <col min="115" max="115" width="8.83203125" style="34" customWidth="1"/>
-    <col min="116" max="116" width="15.1640625" customWidth="1"/>
+    <col min="34" max="34" width="8.85546875" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" customWidth="1"/>
+    <col min="36" max="36" width="12.42578125" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" customWidth="1"/>
+    <col min="39" max="39" width="9.7109375" customWidth="1"/>
+    <col min="40" max="47" width="8.85546875" customWidth="1"/>
+    <col min="48" max="49" width="8.85546875" style="34" customWidth="1"/>
+    <col min="50" max="53" width="8.85546875" customWidth="1"/>
+    <col min="54" max="55" width="8.85546875" style="34" customWidth="1"/>
+    <col min="56" max="114" width="8.85546875" customWidth="1"/>
+    <col min="115" max="115" width="8.85546875" style="34" customWidth="1"/>
+    <col min="116" max="116" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117" ht="106.75" customHeight="1">
+    <row r="1" spans="1:117" ht="106.7" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>398</v>
+        <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>399</v>
+        <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>400</v>
+        <v>9</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>401</v>
+        <v>22</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>417</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="39" t="s">
-        <v>409</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="39" t="s">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="39" t="s">
-        <v>411</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="39" t="s">
-        <v>412</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="39" t="s">
-        <v>413</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="39" t="s">
-        <v>414</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="39" t="s">
-        <v>415</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="35" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="35" t="s">
-        <v>407</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="20" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="20" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="20" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="21" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="21" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="21" t="s">
-        <v>421</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="22" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="23" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="23" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="23" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="23" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="23" t="s">
-        <v>420</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="35" t="s">
-        <v>408</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="35" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="17" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="17" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="17" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="37" t="s">
-        <v>403</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="37" t="s">
-        <v>404</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BE1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BV1" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="BG1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="BH1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BK1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="BN1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="BO1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP1" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="BQ1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR1" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="BS1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="BT1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BU1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="BV1" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="BW1" s="7" t="s">
         <v>74</v>
       </c>
       <c r="BX1" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="BY1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="BZ1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="CA1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="CB1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="CC1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="CD1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CR1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="CF1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="CG1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="CH1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CU1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="CJ1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="CK1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="CL1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CM1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="CN1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="CO1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="CQ1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="CR1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="CS1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="CU1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="CV1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="CW1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="CX1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="CY1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="CZ1" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="DA1" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="DB1" s="7" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="DC1" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="DD1" s="7" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="DE1" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="DF1" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="DG1" s="7" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="DH1" s="7" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="DI1" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="DJ1" s="9" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="DK1" s="38" t="s">
-        <v>405</v>
+        <v>114</v>
       </c>
       <c r="DL1" s="25" t="s">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c r="DM1" s="24" t="s">
-        <v>290</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:117">
       <c r="A2" s="6" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -4172,12 +4319,12 @@
       <c r="DJ2" s="10"/>
       <c r="DK2" s="36"/>
       <c r="DM2" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:117">
       <c r="A3" s="6" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -4379,7 +4526,7 @@
     </row>
     <row r="4" spans="1:117">
       <c r="A4" s="6" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -4589,12 +4736,12 @@
       <c r="DJ4" s="10"/>
       <c r="DK4" s="36"/>
       <c r="DM4" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:117">
       <c r="A5" s="6" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -4802,12 +4949,12 @@
       <c r="DJ5" s="10"/>
       <c r="DK5" s="36"/>
       <c r="DM5" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:117">
       <c r="A6" s="6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -5009,12 +5156,12 @@
       <c r="DJ6" s="10"/>
       <c r="DK6" s="36"/>
       <c r="DM6" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:117">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -5222,12 +5369,12 @@
       <c r="DJ7" s="10"/>
       <c r="DK7" s="36"/>
       <c r="DM7" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:117">
       <c r="A8" s="6" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -5465,12 +5612,12 @@
       <c r="DJ8" s="10"/>
       <c r="DK8" s="36"/>
       <c r="DM8" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:117">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -5660,7 +5807,7 @@
     </row>
     <row r="10" spans="1:117">
       <c r="A10" s="6" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -5864,12 +6011,12 @@
       <c r="DJ10" s="10"/>
       <c r="DK10" s="36"/>
       <c r="DM10" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:117">
       <c r="A11" s="6" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -6081,12 +6228,12 @@
       <c r="DJ11" s="10"/>
       <c r="DK11" s="36"/>
       <c r="DM11" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:117">
       <c r="A12" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -6274,12 +6421,12 @@
       <c r="DJ12" s="10"/>
       <c r="DK12" s="36"/>
       <c r="DM12" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:117">
       <c r="A13" s="6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -6493,12 +6640,12 @@
       <c r="DJ13" s="10"/>
       <c r="DK13" s="36"/>
       <c r="DM13" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:117">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -6690,7 +6837,7 @@
     </row>
     <row r="15" spans="1:117">
       <c r="A15" s="6" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -6886,12 +7033,12 @@
       <c r="DJ15" s="10"/>
       <c r="DK15" s="36"/>
       <c r="DM15" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:117">
       <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -7087,12 +7234,12 @@
       <c r="DJ16" s="10"/>
       <c r="DK16" s="36"/>
       <c r="DM16" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:117">
       <c r="A17" s="6" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -7294,12 +7441,12 @@
       <c r="DJ17" s="10"/>
       <c r="DK17" s="36"/>
       <c r="DM17" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:117">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -7503,12 +7650,12 @@
       <c r="DJ18" s="10"/>
       <c r="DK18" s="36"/>
       <c r="DM18" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:117">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -7696,12 +7843,12 @@
       <c r="DJ19" s="10"/>
       <c r="DK19" s="36"/>
       <c r="DM19" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:117">
       <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
@@ -7917,12 +8064,12 @@
       <c r="DJ20" s="10"/>
       <c r="DK20" s="36"/>
       <c r="DM20" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:117">
       <c r="A21" s="6" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -7985,11 +8132,11 @@
       <c r="Y21" s="5">
         <v>1</v>
       </c>
-      <c r="Z21" s="46"/>
+      <c r="Z21" s="50">
+        <v>1</v>
+      </c>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="46">
-        <v>1</v>
-      </c>
+      <c r="AB21" s="50"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
@@ -8128,7 +8275,7 @@
     </row>
     <row r="22" spans="1:117">
       <c r="A22" s="6" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B22" s="3">
         <v>2</v>
@@ -8334,12 +8481,12 @@
       <c r="DJ22" s="10"/>
       <c r="DK22" s="36"/>
       <c r="DM22" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:117">
       <c r="A23" s="6" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
@@ -8561,7 +8708,7 @@
     </row>
     <row r="24" spans="1:117">
       <c r="A24" s="6" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -8751,7 +8898,7 @@
     </row>
     <row r="25" spans="1:117">
       <c r="A25" s="6" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -8947,7 +9094,7 @@
     </row>
     <row r="26" spans="1:117">
       <c r="A26" s="6" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -9149,7 +9296,7 @@
     </row>
     <row r="27" spans="1:117">
       <c r="A27" s="2" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -9353,7 +9500,7 @@
     </row>
     <row r="28" spans="1:117">
       <c r="A28" s="6" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -9579,7 +9726,7 @@
     </row>
     <row r="29" spans="1:117">
       <c r="A29" s="41" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -9775,7 +9922,7 @@
     </row>
     <row r="30" spans="1:117">
       <c r="A30" s="2" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -9977,12 +10124,12 @@
       <c r="DJ30" s="10"/>
       <c r="DK30" s="36"/>
       <c r="DM30" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:117">
       <c r="A31" s="6" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -10190,12 +10337,12 @@
       <c r="DJ31" s="10"/>
       <c r="DK31" s="36"/>
       <c r="DM31" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:117">
       <c r="A32" s="6" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -10393,18 +10540,18 @@
       <c r="DJ32" s="10"/>
       <c r="DK32" s="36"/>
       <c r="DM32" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:123">
       <c r="A33" s="6" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="B33" s="3">
         <v>2</v>
       </c>
-      <c r="C33">
-        <v>2</v>
+      <c r="C33" s="51">
+        <v>1</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -10596,12 +10743,12 @@
       <c r="DJ33" s="10"/>
       <c r="DK33" s="36"/>
       <c r="DM33" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:123">
       <c r="A34" s="6" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B34" s="3">
         <v>2</v>
@@ -10793,12 +10940,12 @@
       <c r="DJ34" s="10"/>
       <c r="DK34" s="36"/>
       <c r="DM34" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:123">
       <c r="A35" s="6" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="B35" s="3">
         <v>2</v>
@@ -11004,12 +11151,12 @@
       <c r="DJ35" s="10"/>
       <c r="DK35" s="36"/>
       <c r="DM35" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:123">
       <c r="A36" s="6" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -11197,12 +11344,12 @@
       <c r="DJ36" s="10"/>
       <c r="DK36" s="36"/>
       <c r="DM36" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:123">
       <c r="A37" s="6" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B37" s="3">
         <v>2</v>
@@ -11402,21 +11549,21 @@
       <c r="DJ37" s="10"/>
       <c r="DK37" s="36"/>
       <c r="DL37" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="DM37" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:123">
       <c r="A38" s="6" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="B38" s="3">
         <v>3</v>
       </c>
-      <c r="C38">
-        <v>2</v>
+      <c r="C38" s="51">
+        <v>1</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -11474,13 +11621,11 @@
       <c r="Z38" s="26">
         <v>1</v>
       </c>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="45">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="26">
-        <v>1</v>
-      </c>
+      <c r="AA38" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
       <c r="AF38" s="36"/>
       <c r="AG38" s="36"/>
       <c r="AH38" s="5">
@@ -11634,15 +11779,15 @@
       </c>
       <c r="DK38" s="36"/>
       <c r="DL38" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="DM38" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:123">
       <c r="A39" s="6" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
@@ -11844,15 +11989,15 @@
       <c r="DJ39" s="10"/>
       <c r="DK39" s="36"/>
       <c r="DL39" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="DM39" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:123">
       <c r="A40" s="6" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="B40" s="3">
         <v>3</v>
@@ -12062,15 +12207,15 @@
       <c r="DJ40" s="10"/>
       <c r="DK40" s="36"/>
       <c r="DL40" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="DM40" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:123">
       <c r="A41" s="6" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
@@ -12306,15 +12451,15 @@
       <c r="DJ41" s="10"/>
       <c r="DK41" s="36"/>
       <c r="DL41" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="DM41" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:123">
       <c r="A42" s="42" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
@@ -12552,15 +12697,15 @@
       <c r="DJ42" s="10"/>
       <c r="DK42" s="36"/>
       <c r="DL42" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="DM42" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:123">
       <c r="A43" s="6" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B43" s="3">
         <v>2</v>
@@ -12754,15 +12899,15 @@
       <c r="DJ43" s="10"/>
       <c r="DK43" s="36"/>
       <c r="DL43" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="DM43" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:123">
       <c r="A44" s="6" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
@@ -13004,15 +13149,15 @@
       <c r="DJ44" s="10"/>
       <c r="DK44" s="36"/>
       <c r="DL44" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="DM44" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:123">
       <c r="A45" s="6" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
@@ -13246,15 +13391,15 @@
       <c r="DJ45" s="10"/>
       <c r="DK45" s="36"/>
       <c r="DL45" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="DM45" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:123">
       <c r="A46" s="6" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
@@ -13454,15 +13599,15 @@
       <c r="DJ46" s="10"/>
       <c r="DK46" s="36"/>
       <c r="DL46" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="DM46" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:123">
       <c r="A47" s="6" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
@@ -13527,9 +13672,7 @@
         <v>1</v>
       </c>
       <c r="AA47" s="26"/>
-      <c r="AB47" s="45">
-        <v>1</v>
-      </c>
+      <c r="AB47" s="47"/>
       <c r="AC47" s="26"/>
       <c r="AF47" s="36"/>
       <c r="AG47" s="36"/>
@@ -13664,15 +13807,15 @@
       <c r="DJ47" s="10"/>
       <c r="DK47" s="36"/>
       <c r="DL47" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="DM47" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:123">
       <c r="A48" s="6" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
@@ -13874,10 +14017,10 @@
       <c r="DJ48" s="10"/>
       <c r="DK48" s="36"/>
       <c r="DL48" s="11" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="DM48" s="11" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="DN48" s="11"/>
       <c r="DO48" s="11"/>
@@ -13888,7 +14031,7 @@
     </row>
     <row r="49" spans="1:117" s="11" customFormat="1">
       <c r="A49" s="6" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -14089,15 +14232,15 @@
       <c r="DJ49" s="10"/>
       <c r="DK49" s="36"/>
       <c r="DL49" s="11" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="DM49" s="11" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:117">
       <c r="A50" s="42" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="B50" s="3">
         <v>3</v>
@@ -14163,11 +14306,13 @@
       <c r="Z50" s="26">
         <v>1</v>
       </c>
-      <c r="AA50" s="45">
-        <v>1</v>
-      </c>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="45"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="47">
+        <v>1</v>
+      </c>
       <c r="AF50" s="36"/>
       <c r="AG50" s="36"/>
       <c r="AH50" s="5">
@@ -14329,15 +14474,15 @@
       <c r="DJ50" s="10"/>
       <c r="DK50" s="36"/>
       <c r="DL50" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="DM50" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:117">
       <c r="A51" s="6" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
@@ -14527,12 +14672,12 @@
       <c r="DJ51" s="10"/>
       <c r="DK51" s="36"/>
       <c r="DM51" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:117">
       <c r="A52" s="6" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
@@ -14722,7 +14867,7 @@
     </row>
     <row r="53" spans="1:117">
       <c r="A53" s="2" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="B53" s="3">
         <v>2</v>
@@ -14912,7 +15057,7 @@
     </row>
     <row r="54" spans="1:117">
       <c r="A54" s="2" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
@@ -15100,12 +15245,12 @@
       <c r="DJ54" s="10"/>
       <c r="DK54" s="36"/>
       <c r="DM54" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:117">
       <c r="A55" s="2" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -15297,7 +15442,7 @@
     </row>
     <row r="56" spans="1:117">
       <c r="A56" s="6" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
@@ -15485,12 +15630,12 @@
       <c r="DJ56" s="10"/>
       <c r="DK56" s="36"/>
       <c r="DM56" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:117">
       <c r="A57" s="6" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -15680,7 +15825,7 @@
     </row>
     <row r="58" spans="1:117">
       <c r="A58" s="6" t="s">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
@@ -15868,12 +16013,12 @@
       <c r="DJ58" s="10"/>
       <c r="DK58" s="36"/>
       <c r="DM58" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:117">
       <c r="A59" s="6" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -16063,7 +16208,7 @@
     </row>
     <row r="60" spans="1:117">
       <c r="A60" s="42" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -16255,7 +16400,7 @@
     </row>
     <row r="61" spans="1:117">
       <c r="A61" s="6" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="B61" s="3">
         <v>2</v>
@@ -16473,12 +16618,12 @@
       <c r="DJ61" s="10"/>
       <c r="DK61" s="36"/>
       <c r="DM61" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:117">
       <c r="A62" s="6" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="B62" s="3">
         <v>2</v>
@@ -16708,18 +16853,18 @@
       <c r="DJ62" s="10"/>
       <c r="DK62" s="36"/>
       <c r="DM62" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:117">
       <c r="A63" s="6" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="B63" s="3">
         <v>2</v>
       </c>
-      <c r="C63">
-        <v>1</v>
+      <c r="C63" s="51">
+        <v>2</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
@@ -16778,7 +16923,9 @@
         <v>1</v>
       </c>
       <c r="AA63" s="5"/>
-      <c r="AB63" s="5"/>
+      <c r="AB63" s="50">
+        <v>1</v>
+      </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
@@ -16901,12 +17048,12 @@
       <c r="DJ63" s="10"/>
       <c r="DK63" s="36"/>
       <c r="DM63" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:117">
       <c r="A64" s="6" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="B64" s="3">
         <v>2</v>
@@ -17110,12 +17257,12 @@
       <c r="DJ64" s="10"/>
       <c r="DK64" s="36"/>
       <c r="DM64" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:117">
       <c r="A65" s="6" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -17309,12 +17456,12 @@
       <c r="DJ65" s="10"/>
       <c r="DK65" s="36"/>
       <c r="DM65" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:117">
       <c r="A66" s="6" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
@@ -17522,7 +17669,7 @@
     </row>
     <row r="67" spans="1:117">
       <c r="A67" s="2" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="B67" s="3">
         <v>2</v>
@@ -17589,7 +17736,9 @@
         <v>1</v>
       </c>
       <c r="AA67" s="5"/>
-      <c r="AB67" s="5"/>
+      <c r="AB67" s="50">
+        <v>1</v>
+      </c>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
@@ -17730,12 +17879,12 @@
       <c r="DJ67" s="10"/>
       <c r="DK67" s="36"/>
       <c r="DM67" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:117">
       <c r="A68" s="41" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
@@ -17802,7 +17951,9 @@
         <v>1</v>
       </c>
       <c r="AA68" s="5"/>
-      <c r="AB68" s="46"/>
+      <c r="AB68" s="50">
+        <v>1</v>
+      </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
@@ -17935,13 +18086,13 @@
     </row>
     <row r="69" spans="1:117">
       <c r="A69" s="2" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
       </c>
-      <c r="C69" s="40">
-        <v>1</v>
+      <c r="C69" s="51">
+        <v>2</v>
       </c>
       <c r="E69" s="4">
         <v>1</v>
@@ -18000,7 +18151,9 @@
         <v>1</v>
       </c>
       <c r="AA69" s="5"/>
-      <c r="AB69" s="5"/>
+      <c r="AB69" s="50">
+        <v>1</v>
+      </c>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
@@ -18125,7 +18278,7 @@
     </row>
     <row r="70" spans="1:117">
       <c r="A70" s="6" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="B70" s="3">
         <v>2</v>
@@ -18335,12 +18488,12 @@
       <c r="DJ70" s="10"/>
       <c r="DK70" s="36"/>
       <c r="DM70" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:117">
       <c r="A71" s="6" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="B71" s="3">
         <v>2</v>
@@ -18572,12 +18725,12 @@
       <c r="DJ71" s="10"/>
       <c r="DK71" s="36"/>
       <c r="DM71" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:117">
       <c r="A72" s="6" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
@@ -18791,7 +18944,7 @@
     </row>
     <row r="73" spans="1:117">
       <c r="A73" s="6" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="B73" s="3">
         <v>2</v>
@@ -18999,7 +19152,7 @@
     </row>
     <row r="74" spans="1:117">
       <c r="A74" s="6" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="B74" s="3">
         <v>2</v>
@@ -19217,12 +19370,12 @@
       <c r="DJ74" s="10"/>
       <c r="DK74" s="36"/>
       <c r="DM74" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:117">
       <c r="A75" s="43" t="s">
-        <v>418</v>
+        <v>251</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -19438,7 +19591,7 @@
     </row>
     <row r="76" spans="1:117">
       <c r="A76" s="6" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="B76" s="3">
         <v>2</v>
@@ -19666,12 +19819,12 @@
       <c r="DJ76" s="10"/>
       <c r="DK76" s="36"/>
       <c r="DM76" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:117">
       <c r="A77" s="2" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="B77" s="3">
         <v>2</v>
@@ -19883,7 +20036,7 @@
     </row>
     <row r="78" spans="1:117">
       <c r="A78" s="2" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
@@ -20103,12 +20256,12 @@
       <c r="DJ78" s="10"/>
       <c r="DK78" s="36"/>
       <c r="DM78" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:117">
       <c r="A79" s="2" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="B79" s="3">
         <v>1</v>
@@ -20306,7 +20459,7 @@
     </row>
     <row r="80" spans="1:117">
       <c r="A80" s="2" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="B80" s="3">
         <v>2</v>
@@ -20518,12 +20671,12 @@
       <c r="DJ80" s="10"/>
       <c r="DK80" s="36"/>
       <c r="DM80" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:117">
       <c r="A81" s="2" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="B81" s="3">
         <v>1</v>
@@ -20717,12 +20870,12 @@
       <c r="DJ81" s="10"/>
       <c r="DK81" s="36"/>
       <c r="DM81" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:117">
       <c r="A82" s="42" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="B82" s="3">
         <v>2</v>
@@ -20791,8 +20944,12 @@
       <c r="AA82" s="46">
         <v>1</v>
       </c>
-      <c r="AB82" s="46"/>
-      <c r="AC82" s="46"/>
+      <c r="AB82" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC82" s="50">
+        <v>1</v>
+      </c>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="36"/>
@@ -20930,12 +21087,12 @@
       <c r="DJ82" s="10"/>
       <c r="DK82" s="36"/>
       <c r="DM82" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:117">
       <c r="A83" s="6" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="B83" s="3">
         <v>1</v>
@@ -21143,7 +21300,7 @@
     </row>
     <row r="84" spans="1:117">
       <c r="A84" s="44" t="s">
-        <v>419</v>
+        <v>265</v>
       </c>
       <c r="B84" s="3">
         <v>2</v>
@@ -21365,7 +21522,7 @@
     </row>
     <row r="85" spans="1:117">
       <c r="A85" s="6" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
@@ -21581,7 +21738,7 @@
     </row>
     <row r="86" spans="1:117">
       <c r="A86" s="6" t="s">
-        <v>50</v>
+        <v>267</v>
       </c>
       <c r="B86" s="3">
         <v>1</v>
@@ -21811,12 +21968,12 @@
       </c>
       <c r="DK86" s="36"/>
       <c r="DM86" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:117">
       <c r="A87" s="6" t="s">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
@@ -22020,7 +22177,7 @@
     </row>
     <row r="88" spans="1:117">
       <c r="A88" s="6" t="s">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
@@ -22224,12 +22381,12 @@
       <c r="DJ88" s="10"/>
       <c r="DK88" s="36"/>
       <c r="DM88" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:117">
       <c r="A89" s="6" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="B89" s="3">
         <v>2</v>
@@ -22429,12 +22586,12 @@
       <c r="DJ89" s="10"/>
       <c r="DK89" s="36"/>
       <c r="DM89" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:117">
       <c r="A90" s="6" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
@@ -22622,12 +22779,12 @@
       <c r="DJ90" s="10"/>
       <c r="DK90" s="36"/>
       <c r="DM90" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:117">
       <c r="A91" s="6" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="B91" s="3">
         <v>1</v>
@@ -22815,12 +22972,12 @@
       <c r="DJ91" s="10"/>
       <c r="DK91" s="36"/>
       <c r="DM91" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:117">
       <c r="A92" s="6" t="s">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="B92" s="3">
         <v>1</v>
@@ -23008,12 +23165,12 @@
       <c r="DJ92" s="10"/>
       <c r="DK92" s="36"/>
       <c r="DM92" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:117">
       <c r="A93" s="6" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="B93" s="3">
         <v>1</v>
@@ -23227,12 +23384,12 @@
       </c>
       <c r="DK93" s="36"/>
       <c r="DM93" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:117">
       <c r="A94" s="42" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="B94" s="3">
         <v>2</v>
@@ -23299,7 +23456,9 @@
         <v>1</v>
       </c>
       <c r="AA94" s="5"/>
-      <c r="AB94" s="46"/>
+      <c r="AB94" s="50">
+        <v>1</v>
+      </c>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
@@ -23440,12 +23599,12 @@
       <c r="DJ94" s="10"/>
       <c r="DK94" s="36"/>
       <c r="DM94" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:117">
       <c r="A95" s="6" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
@@ -23641,12 +23800,12 @@
       <c r="DJ95" s="10"/>
       <c r="DK95" s="36"/>
       <c r="DM95" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:117">
       <c r="A96" s="6" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="B96" s="3">
         <v>2</v>
@@ -23854,7 +24013,7 @@
       <c r="DJ96" s="10"/>
       <c r="DK96" s="36"/>
       <c r="DM96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="25:29">
@@ -23970,341 +24129,341 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="26.6640625" style="12"/>
+    <col min="1" max="1" width="42.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="26.7109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>393</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>397</v>
+        <v>291</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="47"/>
+        <v>293</v>
+      </c>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="47"/>
+        <v>294</v>
+      </c>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="47"/>
+        <v>295</v>
+      </c>
+      <c r="C5" s="48"/>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>395</v>
+        <v>296</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="47"/>
+        <v>298</v>
+      </c>
+      <c r="C7" s="48"/>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="47"/>
+        <v>299</v>
+      </c>
+      <c r="C8" s="48"/>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="47"/>
+        <v>300</v>
+      </c>
+      <c r="C9" s="48"/>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="47"/>
+        <v>301</v>
+      </c>
+      <c r="C10" s="48"/>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="47"/>
+        <v>302</v>
+      </c>
+      <c r="C11" s="48"/>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="47"/>
+        <v>303</v>
+      </c>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="47"/>
+        <v>304</v>
+      </c>
+      <c r="C13" s="48"/>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="47"/>
+        <v>305</v>
+      </c>
+      <c r="C14" s="48"/>
     </row>
     <row r="15" spans="1:3" ht="21" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="47"/>
+        <v>307</v>
+      </c>
+      <c r="C15" s="48"/>
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="47"/>
+        <v>308</v>
+      </c>
+      <c r="C16" s="48"/>
     </row>
     <row r="17" spans="1:3" ht="21" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="47"/>
+        <v>309</v>
+      </c>
+      <c r="C17" s="48"/>
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>394</v>
+        <v>310</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="48"/>
+        <v>310</v>
+      </c>
+      <c r="C19" s="49"/>
     </row>
     <row r="20" spans="1:3" ht="21" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="48"/>
+        <v>310</v>
+      </c>
+      <c r="C20" s="49"/>
     </row>
     <row r="21" spans="1:3" ht="21" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="48"/>
+        <v>312</v>
+      </c>
+      <c r="C21" s="49"/>
     </row>
     <row r="22" spans="1:3" ht="21" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="48"/>
+        <v>312</v>
+      </c>
+      <c r="C22" s="49"/>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="48"/>
+        <v>312</v>
+      </c>
+      <c r="C23" s="49"/>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="48"/>
+        <v>312</v>
+      </c>
+      <c r="C24" s="49"/>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>421</v>
+        <v>40</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="48"/>
+        <v>312</v>
+      </c>
+      <c r="C25" s="49"/>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" s="48"/>
+        <v>313</v>
+      </c>
+      <c r="C26" s="49"/>
     </row>
     <row r="27" spans="1:3" ht="21" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="48"/>
+        <v>314</v>
+      </c>
+      <c r="C27" s="49"/>
     </row>
     <row r="28" spans="1:3" ht="21" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="48"/>
+        <v>314</v>
+      </c>
+      <c r="C28" s="49"/>
     </row>
     <row r="29" spans="1:3" ht="21" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="48"/>
+        <v>314</v>
+      </c>
+      <c r="C29" s="49"/>
     </row>
     <row r="30" spans="1:3" ht="21" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="48"/>
+        <v>314</v>
+      </c>
+      <c r="C30" s="49"/>
     </row>
     <row r="31" spans="1:3" ht="21" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>420</v>
+        <v>46</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="48"/>
+        <v>314</v>
+      </c>
+      <c r="C31" s="49"/>
     </row>
     <row r="32" spans="1:3" ht="21" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>396</v>
+        <v>315</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="47"/>
+        <v>317</v>
+      </c>
+      <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" s="47"/>
+        <v>318</v>
+      </c>
+      <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:3" ht="21" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" s="47"/>
+        <v>319</v>
+      </c>
+      <c r="C35" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -24322,948 +24481,948 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA237964-B43F-416C-925E-BB2E22A5569E}">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="43">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="42.95">
       <c r="A1" s="29" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="27" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="B2" s="26">
         <v>2</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="27" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="27" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B4" s="26">
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="27" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B5" s="26">
         <v>1</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="27" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="27" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B7" s="26">
         <v>2</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="27" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B8" s="26">
         <v>2</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="27" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="27" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="27" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="27" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="27" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B13" s="26">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="27" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="27" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B15" s="26">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="27" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B16" s="26">
         <v>1</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="27" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B17" s="26">
         <v>1</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="27" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="B18" s="26">
         <v>1</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="27" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B19" s="26">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="27" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="B20" s="26">
         <v>2</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="27" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="27" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B22" s="26">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="27" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="27" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="27" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="27" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="27" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="27" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="27" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="27" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="27" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="B31" s="26">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="27" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B32" s="26">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="27" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
-        <v>229</v>
+      <c r="D33" s="28" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="27" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="B34" s="26">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="27" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="B35" s="26">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="27" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B36" s="26">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="27" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="B37" s="26">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="27" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="B38" s="26">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="27" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B39" s="26">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="27" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="B40" s="26">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="I40" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="27" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="B41" s="26">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="27" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="B42" s="26">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="27" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="B43" s="26">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="27" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="B44" s="26">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="27" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="B45" s="26">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="D45" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="O45" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="27" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="B46" s="26">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="D46" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="27" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="B47" s="26">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="D47" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="27" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="B48" s="26">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="27" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="B49" s="26">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="27" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="B50" s="26">
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="27" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="B51" s="26">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="27" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="27" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="27" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="B54" s="26">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="27" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="27" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="B56" s="26">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="27" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="27" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="B58" s="26">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="27" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="27" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="27" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="B61" s="26">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="27" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="B62" s="26">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="27" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="B63" s="26">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="27" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B64" s="26">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="27" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="B65" s="26">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="27" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="27" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="B67" s="26">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="27" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="27" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="27" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="B70" s="26">
         <v>1</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="27" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="B71" s="26">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="27" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="27" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="27" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="B74" s="26">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="27" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="27" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="B76" s="26">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="27" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="27" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="B78" s="26">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="27" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="27" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="B80" s="26">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="27" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="B81" s="26">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="27" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="B82" s="26">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="27" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="27" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="27" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="27" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="B86" s="26">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="27" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="27" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="B88" s="26">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="27" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="B89" s="26">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="27" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="B90" s="26">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="27" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="B91" s="26">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="27" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="B92" s="26">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="27" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="B93" s="26">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="27" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="B94" s="26">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="27" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="B95" s="26">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="27" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="B96" s="26">
         <v>1</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -25287,8 +25446,9 @@
     <hyperlink ref="D50" r:id="rId17" xr:uid="{DF43951A-F7FA-4778-903F-483EFFDF8305}"/>
     <hyperlink ref="D49" r:id="rId18" display="https://www.bwars.com/bee/apidae/bombus-sylvarum" xr:uid="{72285F11-359C-4BCD-8ED9-4F38755D3FB6}"/>
     <hyperlink ref="D41" r:id="rId19" xr:uid="{26337EC1-A923-4404-9B8D-5FE8D5B99EF4}"/>
+    <hyperlink ref="D33" r:id="rId20" xr:uid="{DA2416CB-3137-4D38-AEBF-A6BBE8CC6047}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>